--- a/2018年员工记录.xlsx
+++ b/2018年员工记录.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -65,22 +65,6 @@
     <t>周广涛</t>
   </si>
   <si>
-    <t>2018年员工支出记录</t>
-    <rPh sb="4" eb="5">
-      <t>nian</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yuan'gong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhi'chu</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ji'lu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>金额</t>
     <rPh sb="0" eb="1">
       <t>jin'e</t>
@@ -105,23 +89,6 @@
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支出人</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'chu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>严水明</t>
-    <rPh sb="0" eb="1">
-      <t>yan'shui'ming</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -234,6 +201,48 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>gong'shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪龙玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年张行全支出给员工记录</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhang'xing'quan</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan'gong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年严水明支出给员工记录</t>
+    <rPh sb="4" eb="5">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan'shui'm</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yuan'gong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji'lu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -345,7 +354,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -358,9 +367,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -377,6 +383,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -672,13 +693,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -688,20 +709,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="11">
         <v>43190</v>
       </c>
       <c r="C3" s="3"/>
@@ -712,7 +733,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -721,7 +742,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -730,7 +751,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -739,7 +760,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -748,12 +769,12 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9">
         <v>43199</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>20</v>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -761,7 +782,7 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="11">
         <v>43193</v>
       </c>
       <c r="C9" s="3"/>
@@ -772,7 +793,7 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1310,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,1158 +1342,1555 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>43200</v>
       </c>
       <c r="C3" s="3">
         <v>5000</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>43186</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15">
+        <v>43193</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9">
+        <v>43211</v>
+      </c>
+      <c r="G5" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018年员工记录.xlsx
+++ b/2018年员工记录.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -243,6 +243,13 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪龙玉</t>
+    <rPh sb="0" eb="1">
+      <t>wang'long'y</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -384,6 +391,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,9 +404,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,13 +700,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -722,7 +729,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>43190</v>
       </c>
       <c r="C3" s="3"/>
@@ -733,7 +740,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -742,7 +749,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -751,7 +758,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -760,7 +767,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -769,7 +776,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="9">
         <v>43199</v>
       </c>
@@ -782,7 +789,7 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>43193</v>
       </c>
       <c r="C9" s="3"/>
@@ -793,7 +800,7 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1334,7 +1341,7 @@
   <dimension ref="A1:G188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1348,16 +1355,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1389,10 +1396,10 @@
       <c r="C3" s="3">
         <v>5000</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <v>43186</v>
       </c>
       <c r="G3" s="8">
@@ -1403,8 +1410,8 @@
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15">
+      <c r="E4" s="15"/>
+      <c r="F4" s="11">
         <v>43193</v>
       </c>
       <c r="G4" s="8">
@@ -1429,9 +1436,15 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43212</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1600</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>

--- a/2018年员工记录.xlsx
+++ b/2018年员工记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="出入职" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>姓名</t>
     <rPh sb="0" eb="1">
@@ -250,6 +250,20 @@
     <t>汪龙玉</t>
     <rPh sb="0" eb="1">
       <t>wang'long'y</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张行宽</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'xing'kuan</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨顺</t>
+    <rPh sb="0" eb="1">
+      <t>yang'shun</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -361,7 +375,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +406,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -687,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,13 +720,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -729,7 +749,7 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>43190</v>
       </c>
       <c r="C3" s="3"/>
@@ -740,7 +760,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -749,7 +769,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -758,7 +778,7 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -767,7 +787,7 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -776,7 +796,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="9">
         <v>43199</v>
       </c>
@@ -789,7 +809,7 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>43193</v>
       </c>
       <c r="C9" s="3"/>
@@ -800,21 +820,29 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43197</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="12">
+        <v>43218</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1340,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A80" zoomScale="150" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1355,16 +1383,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1396,7 +1424,7 @@
       <c r="C3" s="3">
         <v>5000</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="11">
@@ -1410,7 +1438,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="C4" s="3"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="11">
         <v>43193</v>
       </c>

--- a/2018年员工记录.xlsx
+++ b/2018年员工记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="出入职" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
